--- a/data/test-excel.xlsx
+++ b/data/test-excel.xlsx
@@ -463,7 +463,7 @@
         <v>Globus</v>
       </c>
       <c r="B5" t="str">
-        <v/>
+        <v>http://localhost:8000/images/file_dateVal_1729431332741_incurence.jpg</v>
       </c>
       <c r="C5" t="str">
         <v>10000 grm</v>
@@ -480,10 +480,10 @@
         <v/>
       </c>
       <c r="C6" t="str">
-        <v/>
+        <v>7</v>
       </c>
       <c r="D6" t="str">
-        <v/>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
